--- a/trunk/Documents/B_TRACKING/Sencha Touch  RoR Course Plan & Tracker.xlsx
+++ b/trunk/Documents/B_TRACKING/Sencha Touch  RoR Course Plan & Tracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="179">
   <si>
     <t>Sl.No.</t>
   </si>
@@ -548,6 +548,15 @@
   </si>
   <si>
     <t>Note:</t>
+  </si>
+  <si>
+    <t>vmmobility</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -5369,55 +5378,67 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="41" customFormat="1">
+    <row r="1" spans="1:2" s="41" customFormat="1">
       <c r="A1" s="40" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" s="37" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="41" customFormat="1">
+    <row r="4" spans="1:2" s="41" customFormat="1">
       <c r="A4" s="42" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" s="37" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="38" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="38" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="43" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="43" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="43" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="43" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5427,5 +5448,6 @@
     <hyperlink ref="A5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/trunk/Documents/B_TRACKING/Sencha Touch  RoR Course Plan & Tracker.xlsx
+++ b/trunk/Documents/B_TRACKING/Sencha Touch  RoR Course Plan & Tracker.xlsx
@@ -4,22 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15480" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15480" windowHeight="7995" tabRatio="601" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Course Plan &amp; Schedule" sheetId="1" r:id="rId1"/>
     <sheet name="Case Study App - Biz Functions" sheetId="8" r:id="rId2"/>
     <sheet name="Technology Coverage Matrix" sheetId="3" r:id="rId3"/>
     <sheet name="HW &amp; SW Req" sheetId="5" r:id="rId4"/>
-    <sheet name="Wireframe" sheetId="6" r:id="rId5"/>
-    <sheet name="Url References" sheetId="7" r:id="rId6"/>
+    <sheet name="Url References" sheetId="7" r:id="rId5"/>
+    <sheet name="Wire Frame - Splash" sheetId="11" r:id="rId6"/>
+    <sheet name="Wire Frame - Login" sheetId="9" r:id="rId7"/>
+    <sheet name="Wire Frame - Home" sheetId="10" r:id="rId8"/>
+    <sheet name="Wire Frame - Festival List" sheetId="6" r:id="rId9"/>
+    <sheet name="Wire Frame - Festival Detail" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="193">
   <si>
     <t>Sl.No.</t>
   </si>
@@ -557,13 +561,59 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>List Pagenation</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/7131864/sencha-touch-how-to-handle-long-lists-on-ios</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/7321446/sencha-list-paging-plugin</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/7183111/sencha-touch-list-append-new-results-from-store-load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  in Matsuyama City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Matsuyama City</t>
+  </si>
+  <si>
+    <t>Ukai (Cormorant Fishing)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>18:30-21:00</t>
+  </si>
+  <si>
+    <t>June 1-Sept. 20</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>UKAI (Cormorant Fishing) On the Hiji-kawa (river) In Ozu City</t>
+  </si>
+  <si>
+    <t>089-456-9087</t>
+  </si>
+  <si>
+    <t>The tradition of fishing with cormorants goes back at least a thousand years. In Ozu it started as a tourist attraction in 1957 and it is one of the three most famous ukai spots in Japan. 
+The fishing is done from boats called ubune, which is lit by torches as it sails down the Hiji-kawa, the river that runs through Ozu. Cormorant fishermen called usho, beat the sides of the boats to encourage the trained ormorants to catch fish. They are pulled by long strings attached to rings around the birds' necks which 
+prevent them from swallowing the fish. The torchlight attracts fish. 
+You can watch this from special sightseeing boats called yakatabune. A meal is served 
+while on the yakatabune. The fare is as follows:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,8 +717,58 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,6 +808,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7DC4FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,7 +974,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -975,6 +1081,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1017,6 +1124,31 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1024,6 +1156,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF7DC4FF"/>
+      <color rgb="FFCCFFFF"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1031,13 +1169,763 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>52818</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>23378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>37233</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>90054</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="662418" y="680603"/>
+          <a:ext cx="594015" cy="485776"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="008AFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Buxton Sketch" pitchFamily="66" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Wgo</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>184006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>20912</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609599" y="374506"/>
+          <a:ext cx="3049863" cy="197860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>604726</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>11076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>598080</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>11075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="splash-wgo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="604726" y="387646"/>
+          <a:ext cx="3039139" cy="5083691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>334238</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>23379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>318653</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>100878</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="940374" y="1430481"/>
+          <a:ext cx="590552" cy="488806"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="008AFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Buxton Sketch" pitchFamily="66" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Wgo</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>184006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6061</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609599" y="374506"/>
+          <a:ext cx="3073112" cy="197860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>534015</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>42402</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="714375" y="2057400"/>
+          <a:ext cx="2867640" cy="1928352"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>52818</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>23378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>37233</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>90054</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="662418" y="680603"/>
+          <a:ext cx="594015" cy="485776"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="008AFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Buxton Sketch" pitchFamily="66" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Wgo</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>184006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>11387</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609599" y="374506"/>
+          <a:ext cx="3063587" cy="197860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>130155</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>194252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>72449</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>153629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="list-icons.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect l="19852" t="42471" r="72207" b="45946"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="744671" y="1484736"/>
+          <a:ext cx="556810" cy="563651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>522339</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>40968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>365023</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88491</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="icon_settings.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1751371" y="1526049"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>348942</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>122903</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>563306</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1577974" y="2017661"/>
+          <a:ext cx="828880" cy="215081"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000" b="1">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Settings</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>90948</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101190</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>122903</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="705464" y="1995949"/>
+          <a:ext cx="624758" cy="226551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Issues</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>245805</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>40968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>112660</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>112662</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="map.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2703870" y="1526049"/>
+          <a:ext cx="481371" cy="481371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60937</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>275301</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>153629</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2519002" y="2036916"/>
+          <a:ext cx="828880" cy="216310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1000" b="1">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>City Map</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>52818</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>23378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>37233</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>90054</xdr:rowOff>
@@ -1099,91 +1987,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>324715</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>10821</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>86590</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>32469</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="list-icons.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect l="29682" t="85585" r="62724" b="3691"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6420715" y="4954296"/>
-          <a:ext cx="371475" cy="374073"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>398948</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>56479</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>610034</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>101311</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Search.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7104548" y="4999954"/>
-          <a:ext cx="239661" cy="235332"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419069</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171419</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>11651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>108244</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>470194</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>112134</xdr:rowOff>
     </xdr:to>
@@ -1195,14 +2006,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5905469" y="4955126"/>
+          <a:off x="1390619" y="4955126"/>
           <a:ext cx="298775" cy="290983"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1214,13 +2025,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>184006</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>15586</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>866</xdr:rowOff>
@@ -1233,7 +2044,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1261,13 +2072,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>51689</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>15574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>346806</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>122929</xdr:rowOff>
@@ -1280,7 +2091,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1299,52 +2110,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>444276</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>193094</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>224001</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>44332</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="team.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5321076" y="4898444"/>
-          <a:ext cx="389325" cy="441788"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>540313</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>416488</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>36561</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>214946</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>91121</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>143474</xdr:rowOff>
     </xdr:to>
@@ -1356,7 +2129,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:srcRect l="19852" t="42471" r="72207" b="45946"/>
         <a:stretch>
           <a:fillRect/>
@@ -1364,7 +2137,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4807513" y="4980036"/>
+          <a:off x="1026088" y="4980036"/>
           <a:ext cx="284233" cy="297413"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1376,13 +2149,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>409772</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>139173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>611333</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>184004</xdr:rowOff>
@@ -1395,7 +2168,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1414,13 +2187,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>595311</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>615317</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -1428,6 +2201,373 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="11" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4252911" y="1563832"/>
+          <a:ext cx="3172781" cy="3379644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>52818</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>23378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>37233</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>90054</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="662418" y="680603"/>
+          <a:ext cx="594015" cy="485776"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="008AFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Buxton Sketch" pitchFamily="66" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Wgo</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171419</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>11651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>470194</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>112134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Star.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390619" y="4955126"/>
+          <a:ext cx="298775" cy="290983"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>184006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6061</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609599" y="374506"/>
+          <a:ext cx="3073112" cy="197860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>51689</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>15574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>346806</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>122929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="icon_dashboard.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="661289" y="4959049"/>
+          <a:ext cx="295117" cy="297855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>416488</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>36561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>91121</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>143474</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="list-icons.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect l="19852" t="42471" r="72207" b="45946"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1026088" y="4980036"/>
+          <a:ext cx="284233" cy="297413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409772</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>611333</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>184004</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Search.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457772" y="796398"/>
+          <a:ext cx="201561" cy="235331"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6145" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7286625" y="2562225"/>
+          <a:ext cx="2771775" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6147" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1441,8 +2581,55 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4252911" y="1563832"/>
-          <a:ext cx="3172781" cy="3379644"/>
+          <a:off x="600075" y="1524000"/>
+          <a:ext cx="3057525" cy="3524250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>467916</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6148" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="619125" y="1238250"/>
+          <a:ext cx="458391" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1749,7 +2936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -1780,42 +2967,42 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="49" t="s">
+      <c r="F4" s="45"/>
+      <c r="G4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="52" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="14" t="s">
         <v>166</v>
       </c>
@@ -1828,8 +3015,8 @@
       <c r="F5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="52"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="53"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="9">
@@ -2880,12 +4067,472 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:R33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="19"/>
+    <col min="11" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="15" max="19" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="2:18" ht="4.5" customHeight="1">
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="2:18" ht="15" customHeight="1">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="Q5" s="63"/>
+    </row>
+    <row r="6" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="19"/>
+    </row>
+    <row r="7" spans="2:18" ht="11.25" customHeight="1">
+      <c r="B7" s="19"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="19"/>
+    </row>
+    <row r="8" spans="2:18" ht="15" customHeight="1">
+      <c r="B8" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="19"/>
+    </row>
+    <row r="9" spans="2:18" ht="10.5" customHeight="1">
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="19"/>
+    </row>
+    <row r="10" spans="2:18" ht="16.5">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="N10" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="19"/>
+    </row>
+    <row r="11" spans="2:18" ht="16.5">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="N11" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="19"/>
+    </row>
+    <row r="12" spans="2:18" ht="16.5">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="N12" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="2:18" ht="16.5">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="19"/>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="19"/>
+    </row>
+    <row r="15" spans="2:18" ht="15" customHeight="1">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="70" t="s">
+        <v>192</v>
+      </c>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="19"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="19"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="19"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="19"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="19"/>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="19"/>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="19"/>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="19"/>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="19"/>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="19"/>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="M8:Q9"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="M15:Q27"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B8:F9"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3050,33 +4697,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
     </row>
     <row r="2" spans="1:17" ht="103.5">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="24" t="s">
         <v>24</v>
       </c>
@@ -4916,7 +6563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -5092,296 +6739,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D2:V33"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="7" width="9.140625" style="19"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
-    <col min="14" max="22" width="9.140625" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="8:13" ht="24.75" customHeight="1">
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-    </row>
-    <row r="3" spans="8:13" ht="5.25" customHeight="1">
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-    </row>
-    <row r="4" spans="8:13" ht="6.75" customHeight="1">
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="19"/>
-    </row>
-    <row r="5" spans="8:13">
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-    </row>
-    <row r="6" spans="8:13" ht="18" customHeight="1">
-      <c r="H6" s="19"/>
-      <c r="I6" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-    </row>
-    <row r="7" spans="8:13" ht="9.75" customHeight="1">
-      <c r="H7" s="19"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-    </row>
-    <row r="8" spans="8:13">
-      <c r="H8" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="19"/>
-    </row>
-    <row r="9" spans="8:13">
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="19"/>
-    </row>
-    <row r="10" spans="8:13" ht="16.5" customHeight="1">
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-    </row>
-    <row r="11" spans="8:13" ht="16.5" customHeight="1">
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-    </row>
-    <row r="12" spans="8:13" ht="16.5" customHeight="1">
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-    </row>
-    <row r="13" spans="8:13" ht="16.5" customHeight="1">
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-    </row>
-    <row r="14" spans="8:13" ht="15" customHeight="1">
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-    </row>
-    <row r="15" spans="8:13" ht="15" customHeight="1">
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-    </row>
-    <row r="16" spans="8:13" ht="15" customHeight="1">
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-    </row>
-    <row r="17" spans="8:13" ht="15" customHeight="1">
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-    </row>
-    <row r="18" spans="8:13" ht="15" customHeight="1">
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-    </row>
-    <row r="19" spans="8:13" ht="15" customHeight="1">
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-    </row>
-    <row r="20" spans="8:13" ht="15" customHeight="1">
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-    </row>
-    <row r="21" spans="8:13" ht="15" customHeight="1">
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-    </row>
-    <row r="22" spans="8:13" ht="15" customHeight="1">
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-    </row>
-    <row r="23" spans="8:13" ht="15" customHeight="1">
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-    </row>
-    <row r="24" spans="8:13" ht="15" customHeight="1">
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-    </row>
-    <row r="25" spans="8:13" ht="15" customHeight="1">
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-    </row>
-    <row r="26" spans="8:13" ht="15" customHeight="1">
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-    </row>
-    <row r="27" spans="8:13" ht="3.75" customHeight="1">
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-    </row>
-    <row r="28" spans="8:13">
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="19"/>
-    </row>
-    <row r="29" spans="8:13" ht="12.75" customHeight="1">
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="19"/>
-    </row>
-    <row r="30" spans="8:13">
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-    </row>
-    <row r="31" spans="8:13">
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-    </row>
-    <row r="32" spans="8:13">
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-    </row>
-    <row r="33" spans="8:13">
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H8:L9"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H29:L29"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5407,7 +6768,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="44" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5440,14 +6801,1174 @@
     <row r="10" spans="1:2">
       <c r="A10" s="43" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="59" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="59" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A13" r:id="rId3"/>
+    <hyperlink ref="A14" r:id="rId4"/>
+    <hyperlink ref="A15" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:I33"/>
+  <sheetViews>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="19"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:I33"/>
+  <sheetViews>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="24.75" customHeight="1">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="2:7" ht="5.25" customHeight="1">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="2:7" ht="6.75" customHeight="1">
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="2:7" ht="18" customHeight="1">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="2:7" ht="9.75" customHeight="1">
+      <c r="B7" s="19"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="2:7" ht="8.25" customHeight="1">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="2:7" ht="24" customHeight="1">
+      <c r="B10" s="19"/>
+      <c r="C10" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="2:7" ht="15" customHeight="1">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="2:7" ht="15" customHeight="1">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="2:7" ht="15" customHeight="1">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="2:7" ht="15" customHeight="1">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="2:7" ht="15" customHeight="1">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="2:7" ht="15" customHeight="1">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="2:7" ht="15" customHeight="1">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="2:7" ht="15" customHeight="1">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="2:7" ht="15" customHeight="1">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="2:7" ht="15" customHeight="1">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="2:7" ht="15" customHeight="1">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="2:7" ht="15" customHeight="1">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="2:7" ht="15" customHeight="1">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="2:7" ht="3.75" customHeight="1">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="2:7" ht="12.75" customHeight="1">
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:I33"/>
+  <sheetViews>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="24.75" customHeight="1">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="2:7" ht="5.25" customHeight="1">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="2:7" ht="6.75" customHeight="1">
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="2:7" ht="18" customHeight="1">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="2:7" ht="9.75" customHeight="1">
+      <c r="B7" s="19"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="2:7" ht="6.75" customHeight="1">
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="2:7" ht="15" customHeight="1">
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="2:7" ht="15" customHeight="1">
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="2:7" ht="15" customHeight="1">
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="2:7" ht="15" customHeight="1">
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="2:7" ht="15" customHeight="1">
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="2:7" ht="15" customHeight="1">
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="2:7" ht="15" customHeight="1">
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="2:7" ht="15" customHeight="1">
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="2:7" ht="15" customHeight="1">
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="2:7" ht="15" customHeight="1">
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="2:7" ht="15" customHeight="1">
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="2:7" ht="15" customHeight="1">
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="2:7" ht="15" customHeight="1">
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="2:7" ht="15" customHeight="1">
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="2:7" ht="3.75" customHeight="1">
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="2:7" ht="12.75" customHeight="1">
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:I33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="24.75" customHeight="1">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="2:7" ht="5.25" customHeight="1">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="2:7" ht="6.75" customHeight="1">
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="2:7" ht="18" customHeight="1">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="2:7" ht="9.75" customHeight="1">
+      <c r="B7" s="19"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="2:7" ht="15" customHeight="1">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="2:7" ht="15" customHeight="1">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="2:7" ht="15" customHeight="1">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="2:7" ht="15" customHeight="1">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="2:7" ht="15" customHeight="1">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="2:7" ht="15" customHeight="1">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="2:7" ht="15" customHeight="1">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="2:7" ht="15" customHeight="1">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="2:7" ht="15" customHeight="1">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="2:7" ht="15" customHeight="1">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="2:7" ht="15" customHeight="1">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="2:7" ht="15" customHeight="1">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="2:7" ht="15" customHeight="1">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="2:7" ht="3.75" customHeight="1">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="2:7" ht="12.75" customHeight="1">
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B8:F9"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/Documents/B_TRACKING/Sencha Touch  RoR Course Plan & Tracker.xlsx
+++ b/trunk/Documents/B_TRACKING/Sencha Touch  RoR Course Plan & Tracker.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="204">
   <si>
     <t>Sl.No.</t>
   </si>
@@ -608,12 +608,168 @@
 You can watch this from special sightseeing boats called yakatabune. A meal is served 
 while on the yakatabune. The fare is as follows:</t>
   </si>
+  <si>
+    <t>http://corp.softcoin.com/</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>320 X 460</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+WED</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UKAI (Cormorant Fishing)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF008AFF"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jun'21 - Sep'13</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The tradition of fishing with cormorants goes back </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+MON</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+TUE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+MON</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+SUN</t>
+    </r>
+  </si>
+  <si>
+    <t>30
+MON</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,8 +923,49 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF008AFF"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -817,8 +1014,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -966,6 +1169,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -974,7 +1257,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1149,6 +1432,40 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1167,6 +1484,45 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66454</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>155059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="splash-wgo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect l="146" t="11983" r="1822" b="1743"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4319477" y="476251"/>
+          <a:ext cx="2979332" cy="4385930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1256,7 +1612,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1284,38 +1640,213 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>604726</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>365493</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>11076</xdr:rowOff>
+      <xdr:rowOff>99680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>598080</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>11075</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>367708</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>150628</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14" descr="splash-wgo.png"/>
+        <xdr:cNvPr id="16" name="Picture 15" descr="320x460.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="604726" y="387646"/>
-          <a:ext cx="3039139" cy="5083691"/>
+          <a:off x="7664301" y="476250"/>
+          <a:ext cx="3048000" cy="4381500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>376570</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>188282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>287965</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177207</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4020436" y="2447701"/>
+          <a:ext cx="3566337" cy="553779"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Buxton Sketch" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>Whats Going On</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>343343</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4596366" y="4106379"/>
+          <a:ext cx="2569535" cy="412453"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:latin typeface="Buxton Sketch" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>by Vmokshagroup.com</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>454100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>55378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>264043</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>103003</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5121" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11407850" y="1373372"/>
+          <a:ext cx="2246571" cy="2683614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1442,47 +1973,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>573665</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>140710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>534015</xdr:colOff>
+      <xdr:colOff>457633</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>42402</xdr:rowOff>
+      <xdr:rowOff>28142</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 1"/>
+        <xdr:cNvPr id="13" name="Picture 12" descr="Login-Form.PNG"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="714375" y="2057400"/>
-          <a:ext cx="2867640" cy="1928352"/>
+          <a:off x="573665" y="2164773"/>
+          <a:ext cx="2914650" cy="1857375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2232,6 +2754,288 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>292246</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>539896</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>74902</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7607446" y="952500"/>
+          <a:ext cx="247650" cy="265402"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>292246</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>539896</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>74902</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7607446" y="1524000"/>
+          <a:ext cx="247650" cy="265402"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>292246</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>539896</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>74902</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7607446" y="2095500"/>
+          <a:ext cx="247650" cy="265402"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>292246</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>539896</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>74902</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7607446" y="2667000"/>
+          <a:ext cx="247650" cy="265402"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>292246</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>539896</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>74902</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7607446" y="3238500"/>
+          <a:ext cx="247650" cy="265402"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>60181</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7620000" y="3790950"/>
+          <a:ext cx="247650" cy="269731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2507,16 +3311,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2534,7 +3338,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7286625" y="2562225"/>
+          <a:off x="7886700" y="76200"/>
           <a:ext cx="2771775" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2630,6 +3434,53 @@
         <a:xfrm>
           <a:off x="619125" y="1238250"/>
           <a:ext cx="458391" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6149" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7305675" y="2143125"/>
+          <a:ext cx="2828925" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4072,7 +4923,7 @@
   <dimension ref="A2:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4080,10 +4931,9 @@
     <col min="1" max="1" width="9.140625" style="19"/>
     <col min="6" max="6" width="9.28515625" customWidth="1"/>
     <col min="8" max="9" width="9.140625" style="19"/>
-    <col min="11" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="15" max="19" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="19" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18">
@@ -4684,8 +5534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6564,7 +7414,7 @@
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6742,7 +7592,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6838,10 +7688,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I33"/>
+  <dimension ref="A2:O30"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6851,15 +7701,21 @@
     <col min="8" max="9" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:15">
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="2:7">
+      <c r="N2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -6867,7 +7723,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:15">
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
@@ -6875,7 +7731,7 @@
       <c r="F4" s="57"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:15">
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -6883,7 +7739,7 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:15">
       <c r="B6" s="19"/>
       <c r="C6" s="20" t="s">
         <v>183</v>
@@ -6892,7 +7748,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:15">
       <c r="B7" s="19"/>
       <c r="C7" s="21"/>
       <c r="D7" s="22"/>
@@ -6900,7 +7756,7 @@
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:15">
       <c r="B8" s="57"/>
       <c r="C8" s="57"/>
       <c r="D8" s="57"/>
@@ -6908,7 +7764,7 @@
       <c r="F8" s="57"/>
       <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:15">
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
       <c r="D9" s="61"/>
@@ -6916,7 +7772,7 @@
       <c r="F9" s="60"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:15">
       <c r="B10" s="60"/>
       <c r="C10" s="60"/>
       <c r="D10" s="61"/>
@@ -6924,7 +7780,7 @@
       <c r="F10" s="60"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:15">
       <c r="B11" s="60"/>
       <c r="C11" s="60"/>
       <c r="D11" s="61"/>
@@ -6932,23 +7788,23 @@
       <c r="F11" s="60"/>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:15">
       <c r="B12" s="60"/>
       <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="60"/>
       <c r="F12" s="60"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:15">
       <c r="B13" s="60"/>
       <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="60"/>
       <c r="F13" s="60"/>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:15">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
@@ -6956,7 +7812,7 @@
       <c r="F14" s="60"/>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:15">
       <c r="B15" s="60"/>
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
@@ -6964,7 +7820,7 @@
       <c r="F15" s="60"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:15">
       <c r="B16" s="60"/>
       <c r="C16" s="60"/>
       <c r="D16" s="60"/>
@@ -6972,7 +7828,7 @@
       <c r="F16" s="60"/>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:14">
       <c r="B17" s="60"/>
       <c r="C17" s="60"/>
       <c r="D17" s="60"/>
@@ -6980,7 +7836,7 @@
       <c r="F17" s="60"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:14">
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
       <c r="D18" s="60"/>
@@ -6988,7 +7844,7 @@
       <c r="F18" s="60"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:14">
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
       <c r="D19" s="60"/>
@@ -6996,7 +7852,7 @@
       <c r="F19" s="60"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:14">
       <c r="B20" s="60"/>
       <c r="C20" s="60"/>
       <c r="D20" s="60"/>
@@ -7004,7 +7860,7 @@
       <c r="F20" s="60"/>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:14">
       <c r="B21" s="60"/>
       <c r="C21" s="60"/>
       <c r="D21" s="60"/>
@@ -7012,7 +7868,7 @@
       <c r="F21" s="60"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:14">
       <c r="B22" s="60"/>
       <c r="C22" s="60"/>
       <c r="D22" s="60"/>
@@ -7020,7 +7876,7 @@
       <c r="F22" s="60"/>
       <c r="G22" s="19"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:14">
       <c r="B23" s="60"/>
       <c r="C23" s="60"/>
       <c r="D23" s="60"/>
@@ -7028,7 +7884,7 @@
       <c r="F23" s="60"/>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:14">
       <c r="B24" s="60"/>
       <c r="C24" s="60"/>
       <c r="D24" s="60"/>
@@ -7036,47 +7892,51 @@
       <c r="F24" s="60"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
+    <row r="25" spans="2:14">
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="19"/>
     </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
+    <row r="26" spans="2:14">
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
+    <row r="27" spans="2:14">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
       <c r="G27" s="19"/>
     </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
+    <row r="28" spans="2:14">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
       <c r="G28" s="19"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
+      <c r="N28" s="44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="19"/>
-    </row>
-    <row r="30" spans="2:7">
+      <c r="N29" s="44"/>
+    </row>
+    <row r="30" spans="2:14">
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -7084,39 +7944,18 @@
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="N28" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7125,7 +7964,7 @@
   <dimension ref="A2:I33"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7407,8 +8246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I33"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView topLeftCell="A4" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7689,10 +8528,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I33"/>
+  <dimension ref="A2:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7700,9 +8539,11 @@
     <col min="1" max="1" width="9.140625" style="19"/>
     <col min="6" max="6" width="9.28515625" customWidth="1"/>
     <col min="8" max="9" width="9.140625" style="19"/>
+    <col min="15" max="15" width="4.5703125" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="24.75" customHeight="1">
+    <row r="2" spans="2:17" ht="24.75" customHeight="1">
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -7710,7 +8551,7 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="2:7" ht="5.25" customHeight="1">
+    <row r="3" spans="2:17" ht="5.25" customHeight="1">
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -7718,7 +8559,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="2:7" ht="6.75" customHeight="1">
+    <row r="4" spans="2:17" ht="6.75" customHeight="1">
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
@@ -7726,15 +8567,20 @@
       <c r="F4" s="57"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:17">
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="2:7" ht="18" customHeight="1">
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+    </row>
+    <row r="6" spans="2:17" ht="18" customHeight="1">
       <c r="B6" s="19"/>
       <c r="C6" s="20" t="s">
         <v>171</v>
@@ -7742,16 +8588,30 @@
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="2:7" ht="9.75" customHeight="1">
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+    </row>
+    <row r="7" spans="2:17" ht="9.75" customHeight="1">
       <c r="B7" s="19"/>
       <c r="C7" s="21"/>
       <c r="D7" s="22"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="M7" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="N7" s="74" t="s">
+        <v>197</v>
+      </c>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="75"/>
+    </row>
+    <row r="8" spans="2:17">
       <c r="B8" s="58" t="s">
         <v>155</v>
       </c>
@@ -7760,136 +8620,253 @@
       <c r="E8" s="58"/>
       <c r="F8" s="58"/>
       <c r="G8" s="19"/>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="M8" s="73"/>
+      <c r="N8" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="77"/>
+    </row>
+    <row r="9" spans="2:17">
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
       <c r="D9" s="58"/>
       <c r="E9" s="58"/>
       <c r="F9" s="58"/>
       <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="2:7" ht="16.5" customHeight="1">
+      <c r="M9" s="78"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="80"/>
+    </row>
+    <row r="10" spans="2:17" ht="16.5" customHeight="1">
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="23"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="2:7" ht="16.5" customHeight="1">
+      <c r="M10" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="N10" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="83"/>
+    </row>
+    <row r="11" spans="2:17" ht="16.5" customHeight="1">
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="23"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="2:7" ht="16.5" customHeight="1">
+      <c r="M11" s="73"/>
+      <c r="N11" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="77"/>
+    </row>
+    <row r="12" spans="2:17" ht="16.5" customHeight="1">
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="23"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="2:7" ht="16.5" customHeight="1">
+      <c r="M12" s="78"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="80"/>
+    </row>
+    <row r="13" spans="2:17" ht="16.5" customHeight="1">
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="23"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="2:7" ht="15" customHeight="1">
+      <c r="M13" s="81" t="s">
+        <v>200</v>
+      </c>
+      <c r="N13" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="83"/>
+    </row>
+    <row r="14" spans="2:17" ht="15" customHeight="1">
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="2:7" ht="15" customHeight="1">
+      <c r="M14" s="73"/>
+      <c r="N14" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="77"/>
+    </row>
+    <row r="15" spans="2:17" ht="15" customHeight="1">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="2:7" ht="15" customHeight="1">
+      <c r="M15" s="78"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="80"/>
+    </row>
+    <row r="16" spans="2:17" ht="15" customHeight="1">
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1">
+      <c r="M16" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="N16" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="83"/>
+    </row>
+    <row r="17" spans="2:17" ht="15" customHeight="1">
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="2:7" ht="15" customHeight="1">
+      <c r="M17" s="73"/>
+      <c r="N17" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="77"/>
+    </row>
+    <row r="18" spans="2:17" ht="15" customHeight="1">
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1">
+      <c r="M18" s="78"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="80"/>
+    </row>
+    <row r="19" spans="2:17" ht="15" customHeight="1">
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="2:7" ht="15" customHeight="1">
+      <c r="M19" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="N19" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="83"/>
+    </row>
+    <row r="20" spans="2:17" ht="15" customHeight="1">
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="2:7" ht="15" customHeight="1">
+      <c r="M20" s="73"/>
+      <c r="N20" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="77"/>
+    </row>
+    <row r="21" spans="2:17" ht="15" customHeight="1">
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="2:7" ht="15" customHeight="1">
+      <c r="M21" s="78"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="80"/>
+    </row>
+    <row r="22" spans="2:17" ht="15" customHeight="1">
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="2:7" ht="15" customHeight="1">
+      <c r="M22" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="N22" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="83"/>
+    </row>
+    <row r="23" spans="2:17" ht="15" customHeight="1">
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="2:7" ht="15" customHeight="1">
+      <c r="M23" s="73"/>
+      <c r="N23" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="O23" s="76"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="77"/>
+    </row>
+    <row r="24" spans="2:17" ht="15" customHeight="1">
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="2:7" ht="15" customHeight="1">
+      <c r="M24" s="78"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="80"/>
+    </row>
+    <row r="25" spans="2:17" ht="15" customHeight="1">
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -7897,7 +8874,7 @@
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
     </row>
-    <row r="26" spans="2:7" ht="15" customHeight="1">
+    <row r="26" spans="2:17" ht="15" customHeight="1">
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -7905,7 +8882,7 @@
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="2:7" ht="3.75" customHeight="1">
+    <row r="27" spans="2:17" ht="3.75" customHeight="1">
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -7913,7 +8890,7 @@
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:17">
       <c r="B28" s="57"/>
       <c r="C28" s="57"/>
       <c r="D28" s="57"/>
@@ -7921,7 +8898,7 @@
       <c r="F28" s="57"/>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="2:7" ht="12.75" customHeight="1">
+    <row r="29" spans="2:17" ht="12.75" customHeight="1">
       <c r="B29" s="57"/>
       <c r="C29" s="57"/>
       <c r="D29" s="57"/>
@@ -7929,7 +8906,7 @@
       <c r="F29" s="57"/>
       <c r="G29" s="19"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:17">
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -7937,7 +8914,7 @@
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:17">
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -7945,7 +8922,7 @@
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:17">
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -7962,7 +8939,25 @@
       <c r="G33" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="22">
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="N20:P21"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="N23:P24"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="N14:P15"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N17:P18"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N8:P9"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:P12"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B8:F9"/>
     <mergeCell ref="B28:F28"/>

--- a/trunk/Documents/B_TRACKING/Sencha Touch  RoR Course Plan & Tracker.xlsx
+++ b/trunk/Documents/B_TRACKING/Sencha Touch  RoR Course Plan & Tracker.xlsx
@@ -4923,7 +4923,7 @@
   <dimension ref="A2:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/Documents/B_TRACKING/Sencha Touch  RoR Course Plan & Tracker.xlsx
+++ b/trunk/Documents/B_TRACKING/Sencha Touch  RoR Course Plan & Tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15480" windowHeight="7995" tabRatio="601" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15480" windowHeight="7995" tabRatio="601" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Course Plan &amp; Schedule" sheetId="1" r:id="rId1"/>
@@ -1365,6 +1365,26 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1404,37 +1424,26 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1442,28 +1451,19 @@
     <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3818,42 +3818,42 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="50" t="s">
+      <c r="F4" s="57"/>
+      <c r="G4" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A5" s="48"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="14" t="s">
         <v>166</v>
       </c>
@@ -3866,8 +3866,8 @@
       <c r="F5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="53"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="65"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="9">
@@ -4922,7 +4922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -4953,11 +4953,11 @@
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="2:18" ht="4.5" customHeight="1">
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="2:18" ht="15" customHeight="1">
@@ -4967,7 +4967,7 @@
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
-      <c r="Q5" s="63"/>
+      <c r="Q5" s="49"/>
     </row>
     <row r="6" spans="2:18" ht="18.75" customHeight="1">
       <c r="B6" s="19"/>
@@ -4982,7 +4982,7 @@
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
-      <c r="Q6" s="65"/>
+      <c r="Q6" s="51"/>
       <c r="R6" s="19"/>
     </row>
     <row r="7" spans="2:18" ht="11.25" customHeight="1">
@@ -4992,46 +4992,46 @@
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
       <c r="R7" s="19"/>
     </row>
     <row r="8" spans="2:18" ht="15" customHeight="1">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="19"/>
       <c r="L8" s="19"/>
-      <c r="M8" s="71" t="s">
+      <c r="M8" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
       <c r="R8" s="19"/>
     </row>
     <row r="9" spans="2:18" ht="10.5" customHeight="1">
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="19"/>
       <c r="L9" s="19"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
       <c r="R9" s="19"/>
     </row>
     <row r="10" spans="2:18" ht="16.5">
@@ -5042,15 +5042,15 @@
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="L10" s="19"/>
-      <c r="M10" s="66" t="s">
+      <c r="M10" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="N10" s="67" t="s">
+      <c r="N10" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
       <c r="R10" s="19"/>
     </row>
     <row r="11" spans="2:18" ht="16.5">
@@ -5061,15 +5061,15 @@
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="L11" s="19"/>
-      <c r="M11" s="66" t="s">
+      <c r="M11" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="N11" s="67" t="s">
+      <c r="N11" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
       <c r="R11" s="19"/>
     </row>
     <row r="12" spans="2:18" ht="16.5">
@@ -5080,15 +5080,15 @@
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="L12" s="19"/>
-      <c r="M12" s="66" t="s">
+      <c r="M12" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="N12" s="68" t="s">
+      <c r="N12" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
       <c r="R12" s="19"/>
     </row>
     <row r="13" spans="2:18" ht="16.5">
@@ -5099,11 +5099,11 @@
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="L13" s="19"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
       <c r="R13" s="19"/>
     </row>
     <row r="14" spans="2:18">
@@ -5114,11 +5114,11 @@
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="L14" s="19"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
       <c r="R14" s="19"/>
     </row>
     <row r="15" spans="2:18" ht="15" customHeight="1">
@@ -5129,13 +5129,13 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="L15" s="19"/>
-      <c r="M15" s="70" t="s">
+      <c r="M15" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
       <c r="R15" s="19"/>
     </row>
     <row r="16" spans="2:18">
@@ -5146,11 +5146,11 @@
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="L16" s="19"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
       <c r="R16" s="19"/>
     </row>
     <row r="17" spans="2:18">
@@ -5161,11 +5161,11 @@
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="L17" s="19"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="2:18">
@@ -5176,11 +5176,11 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="L18" s="19"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
       <c r="R18" s="19"/>
     </row>
     <row r="19" spans="2:18">
@@ -5191,11 +5191,11 @@
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="L19" s="19"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
       <c r="R19" s="19"/>
     </row>
     <row r="20" spans="2:18">
@@ -5206,11 +5206,11 @@
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="L20" s="19"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
       <c r="R20" s="19"/>
     </row>
     <row r="21" spans="2:18">
@@ -5221,11 +5221,11 @@
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="L21" s="19"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
       <c r="R21" s="19"/>
     </row>
     <row r="22" spans="2:18">
@@ -5236,11 +5236,11 @@
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="L22" s="19"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
       <c r="R22" s="19"/>
     </row>
     <row r="23" spans="2:18">
@@ -5251,11 +5251,11 @@
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="L23" s="19"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
       <c r="R23" s="19"/>
     </row>
     <row r="24" spans="2:18">
@@ -5266,11 +5266,11 @@
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="L24" s="19"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
       <c r="R24" s="19"/>
     </row>
     <row r="25" spans="2:18">
@@ -5280,11 +5280,11 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="70"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="19"/>
@@ -5293,11 +5293,11 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="83"/>
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="19"/>
@@ -5306,26 +5306,26 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="19"/>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
       <c r="G29" s="19"/>
     </row>
     <row r="30" spans="2:18">
@@ -5362,15 +5362,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B8:F9"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
     <mergeCell ref="M8:Q9"/>
     <mergeCell ref="N10:Q10"/>
     <mergeCell ref="N11:Q11"/>
     <mergeCell ref="N12:Q12"/>
     <mergeCell ref="M15:Q27"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B8:F9"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5547,33 +5547,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
     </row>
     <row r="2" spans="1:17" ht="103.5">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
       <c r="C2" s="24" t="s">
         <v>24</v>
       </c>
@@ -7664,12 +7664,12 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="45" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="45" t="s">
         <v>182</v>
       </c>
     </row>
@@ -7724,11 +7724,11 @@
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="2:15">
@@ -7739,7 +7739,7 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" ht="28.5">
       <c r="B6" s="19"/>
       <c r="C6" s="20" t="s">
         <v>183</v>
@@ -7748,7 +7748,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" ht="20.25">
       <c r="B7" s="19"/>
       <c r="C7" s="21"/>
       <c r="D7" s="22"/>
@@ -7757,155 +7757,155 @@
       <c r="G7" s="19"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
+    <row r="9" spans="2:15" ht="16.5">
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
+    <row r="10" spans="2:15" ht="16.5">
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
+    <row r="11" spans="2:15" ht="16.5">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="19"/>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="19"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="19"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
       <c r="G15" s="19"/>
     </row>
     <row r="16" spans="2:15">
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
       <c r="G16" s="19"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
       <c r="G17" s="19"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="19"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="19"/>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="19"/>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
       <c r="G21" s="19"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
       <c r="G22" s="19"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
       <c r="G23" s="19"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
       <c r="G24" s="19"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="19"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="19"/>
     </row>
     <row r="27" spans="2:14">
@@ -7963,8 +7963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I33"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7991,11 +7991,11 @@
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="2:7" ht="6.75" customHeight="1">
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="2:7">
@@ -8039,7 +8039,7 @@
     </row>
     <row r="10" spans="2:7" ht="24" customHeight="1">
       <c r="B10" s="19"/>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="48" t="s">
         <v>184</v>
       </c>
       <c r="D10" s="23"/>
@@ -8184,19 +8184,19 @@
       <c r="G27" s="19"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="19"/>
     </row>
     <row r="29" spans="2:7" ht="12.75" customHeight="1">
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
       <c r="G29" s="19"/>
     </row>
     <row r="30" spans="2:7">
@@ -8274,11 +8274,11 @@
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="2:7" ht="6.75" customHeight="1">
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="2:7">
@@ -8307,179 +8307,179 @@
       <c r="G7" s="19"/>
     </row>
     <row r="8" spans="2:7" ht="6.75" customHeight="1">
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="19"/>
     </row>
     <row r="9" spans="2:7" ht="15" customHeight="1">
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="19"/>
     </row>
     <row r="10" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="19"/>
     </row>
     <row r="11" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="19"/>
     </row>
     <row r="12" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="19"/>
     </row>
     <row r="13" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="2:7" ht="15" customHeight="1">
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="19"/>
     </row>
     <row r="15" spans="2:7" ht="15" customHeight="1">
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
       <c r="G15" s="19"/>
     </row>
     <row r="16" spans="2:7" ht="15" customHeight="1">
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
       <c r="G16" s="19"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1">
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
       <c r="G17" s="19"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1">
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="19"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1">
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="19"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1">
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="19"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1">
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
       <c r="G21" s="19"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1">
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
       <c r="G22" s="19"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1">
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
       <c r="G23" s="19"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1">
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
       <c r="G24" s="19"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1">
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
       <c r="G25" s="19"/>
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1">
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
       <c r="G26" s="19"/>
     </row>
     <row r="27" spans="2:7" ht="3.75" customHeight="1">
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
       <c r="G27" s="19"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="19"/>
     </row>
     <row r="29" spans="2:7" ht="12.75" customHeight="1">
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
       <c r="G29" s="19"/>
     </row>
     <row r="30" spans="2:7">
@@ -8560,11 +8560,11 @@
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="2:17" ht="6.75" customHeight="1">
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="2:17">
@@ -8574,11 +8574,11 @@
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
     </row>
     <row r="6" spans="2:17" ht="18" customHeight="1">
       <c r="B6" s="19"/>
@@ -8588,11 +8588,11 @@
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
     </row>
     <row r="7" spans="2:17" ht="9.75" customHeight="1">
       <c r="B7" s="19"/>
@@ -8601,45 +8601,45 @@
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
-      <c r="M7" s="73" t="s">
+      <c r="M7" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="N7" s="74" t="s">
+      <c r="N7" s="77" t="s">
         <v>197</v>
       </c>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="75"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="78"/>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="79" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="19"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="76" t="s">
+      <c r="M8" s="71"/>
+      <c r="N8" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="77"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="55"/>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="19"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="80"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="56"/>
     </row>
     <row r="10" spans="2:17" ht="16.5" customHeight="1">
       <c r="B10" s="19"/>
@@ -8648,15 +8648,15 @@
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
-      <c r="M10" s="81" t="s">
+      <c r="M10" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="N10" s="82" t="s">
+      <c r="N10" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="83"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="74"/>
     </row>
     <row r="11" spans="2:17" ht="16.5" customHeight="1">
       <c r="B11" s="19"/>
@@ -8665,13 +8665,13 @@
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="76" t="s">
+      <c r="M11" s="71"/>
+      <c r="N11" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="77"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="55"/>
     </row>
     <row r="12" spans="2:17" ht="16.5" customHeight="1">
       <c r="B12" s="19"/>
@@ -8680,11 +8680,11 @@
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="80"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="56"/>
     </row>
     <row r="13" spans="2:17" ht="16.5" customHeight="1">
       <c r="B13" s="19"/>
@@ -8693,15 +8693,15 @@
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
-      <c r="M13" s="81" t="s">
+      <c r="M13" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="N13" s="82" t="s">
+      <c r="N13" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="83"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="74"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1">
       <c r="B14" s="19"/>
@@ -8710,13 +8710,13 @@
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="76" t="s">
+      <c r="M14" s="71"/>
+      <c r="N14" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="77"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="55"/>
     </row>
     <row r="15" spans="2:17" ht="15" customHeight="1">
       <c r="B15" s="19"/>
@@ -8725,11 +8725,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="80"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="56"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1">
       <c r="B16" s="19"/>
@@ -8738,15 +8738,15 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
-      <c r="M16" s="81" t="s">
+      <c r="M16" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="N16" s="82" t="s">
+      <c r="N16" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="83"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="74"/>
     </row>
     <row r="17" spans="2:17" ht="15" customHeight="1">
       <c r="B17" s="19"/>
@@ -8755,13 +8755,13 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="76" t="s">
+      <c r="M17" s="71"/>
+      <c r="N17" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="77"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="55"/>
     </row>
     <row r="18" spans="2:17" ht="15" customHeight="1">
       <c r="B18" s="19"/>
@@ -8770,11 +8770,11 @@
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="80"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="56"/>
     </row>
     <row r="19" spans="2:17" ht="15" customHeight="1">
       <c r="B19" s="19"/>
@@ -8783,15 +8783,15 @@
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
-      <c r="M19" s="81" t="s">
+      <c r="M19" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="N19" s="82" t="s">
+      <c r="N19" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="83"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="74"/>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1">
       <c r="B20" s="19"/>
@@ -8800,13 +8800,13 @@
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="76" t="s">
+      <c r="M20" s="71"/>
+      <c r="N20" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="77"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="55"/>
     </row>
     <row r="21" spans="2:17" ht="15" customHeight="1">
       <c r="B21" s="19"/>
@@ -8815,11 +8815,11 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="80"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="56"/>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1">
       <c r="B22" s="19"/>
@@ -8828,15 +8828,15 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
-      <c r="M22" s="81" t="s">
+      <c r="M22" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="N22" s="82" t="s">
+      <c r="N22" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="83"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="74"/>
     </row>
     <row r="23" spans="2:17" ht="15" customHeight="1">
       <c r="B23" s="19"/>
@@ -8845,13 +8845,13 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="76" t="s">
+      <c r="M23" s="71"/>
+      <c r="N23" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="77"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="55"/>
     </row>
     <row r="24" spans="2:17" ht="15" customHeight="1">
       <c r="B24" s="19"/>
@@ -8860,11 +8860,11 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="80"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="56"/>
     </row>
     <row r="25" spans="2:17" ht="15" customHeight="1">
       <c r="B25" s="19"/>
@@ -8891,19 +8891,19 @@
       <c r="G27" s="19"/>
     </row>
     <row r="28" spans="2:17">
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="19"/>
     </row>
     <row r="29" spans="2:17" ht="12.75" customHeight="1">
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
       <c r="G29" s="19"/>
     </row>
     <row r="30" spans="2:17">
@@ -8940,28 +8940,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B8:F9"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N8:P9"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:P12"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="N14:P15"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N17:P18"/>
     <mergeCell ref="M19:M21"/>
     <mergeCell ref="N19:Q19"/>
     <mergeCell ref="N20:P21"/>
     <mergeCell ref="M22:M24"/>
     <mergeCell ref="N22:Q22"/>
     <mergeCell ref="N23:P24"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="N14:P15"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="N17:P18"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N8:P9"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N11:P12"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B8:F9"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
